--- a/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H2">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I2">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J2">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.74356628171671</v>
+        <v>0.093482</v>
       </c>
       <c r="N2">
-        <v>2.74356628171671</v>
+        <v>0.280446</v>
       </c>
       <c r="O2">
-        <v>0.2162298995786726</v>
+        <v>0.005557760591445322</v>
       </c>
       <c r="P2">
-        <v>0.2162298995786726</v>
+        <v>0.007632705645359706</v>
       </c>
       <c r="Q2">
-        <v>2.199142232918194</v>
+        <v>0.112251128996</v>
       </c>
       <c r="R2">
-        <v>2.199142232918194</v>
+        <v>1.010260160964</v>
       </c>
       <c r="S2">
-        <v>0.01169593788149487</v>
+        <v>0.0004076319721811274</v>
       </c>
       <c r="T2">
-        <v>0.01169593788149487</v>
+        <v>0.0006705063643357613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H3">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I3">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J3">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.944624792055199</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="N3">
-        <v>9.944624792055199</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O3">
-        <v>0.7837701004213274</v>
+        <v>0.1747955400619085</v>
       </c>
       <c r="P3">
-        <v>0.7837701004213274</v>
+        <v>0.2400540439737208</v>
       </c>
       <c r="Q3">
-        <v>7.971246955641103</v>
+        <v>3.530378178868666</v>
       </c>
       <c r="R3">
-        <v>7.971246955641103</v>
+        <v>31.773403609818</v>
       </c>
       <c r="S3">
-        <v>0.04239435168662033</v>
+        <v>0.01282031666379705</v>
       </c>
       <c r="T3">
-        <v>0.04239435168662033</v>
+        <v>0.02108790404707544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.98728589742456</v>
+        <v>1.200778</v>
       </c>
       <c r="H4">
-        <v>2.98728589742456</v>
+        <v>3.602334</v>
       </c>
       <c r="I4">
-        <v>0.2015850092268656</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J4">
-        <v>0.2015850092268656</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.74356628171671</v>
+        <v>0.06894633333333333</v>
       </c>
       <c r="N4">
-        <v>2.74356628171671</v>
+        <v>0.206839</v>
       </c>
       <c r="O4">
-        <v>0.2162298995786726</v>
+        <v>0.004099048098293286</v>
       </c>
       <c r="P4">
-        <v>0.2162298995786726</v>
+        <v>0.005629394617789365</v>
       </c>
       <c r="Q4">
-        <v>8.195816862021864</v>
+        <v>0.08278924024733332</v>
       </c>
       <c r="R4">
-        <v>8.195816862021864</v>
+        <v>0.7451031622259999</v>
       </c>
       <c r="S4">
-        <v>0.04358870630169093</v>
+        <v>0.0003006432236294053</v>
       </c>
       <c r="T4">
-        <v>0.04358870630169093</v>
+        <v>0.0004945225315848489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.98728589742456</v>
+        <v>1.200778</v>
       </c>
       <c r="H5">
-        <v>2.98728589742456</v>
+        <v>3.602334</v>
       </c>
       <c r="I5">
-        <v>0.2015850092268656</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J5">
-        <v>0.2015850092268656</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.944624792055199</v>
+        <v>13.71758</v>
       </c>
       <c r="N5">
-        <v>9.944624792055199</v>
+        <v>27.43516</v>
       </c>
       <c r="O5">
-        <v>0.7837701004213274</v>
+        <v>0.8155476512483528</v>
       </c>
       <c r="P5">
-        <v>0.7837701004213274</v>
+        <v>0.7466838557631301</v>
       </c>
       <c r="Q5">
-        <v>29.70743739648514</v>
+        <v>16.47176827724</v>
       </c>
       <c r="R5">
-        <v>29.70743739648514</v>
+        <v>98.83060966344</v>
       </c>
       <c r="S5">
-        <v>0.1579963029251746</v>
+        <v>0.05981605216996202</v>
       </c>
       <c r="T5">
-        <v>0.1579963029251746</v>
+        <v>0.0655935523650539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.20291163798468</v>
+        <v>3.197813</v>
       </c>
       <c r="H6">
-        <v>1.20291163798468</v>
+        <v>9.593439</v>
       </c>
       <c r="I6">
-        <v>0.08117366799451757</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J6">
-        <v>0.08117366799451757</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.74356628171671</v>
+        <v>0.093482</v>
       </c>
       <c r="N6">
-        <v>2.74356628171671</v>
+        <v>0.280446</v>
       </c>
       <c r="O6">
-        <v>0.2162298995786726</v>
+        <v>0.005557760591445322</v>
       </c>
       <c r="P6">
-        <v>0.2162298995786726</v>
+        <v>0.007632705645359706</v>
       </c>
       <c r="Q6">
-        <v>3.300267809859386</v>
+        <v>0.298937954866</v>
       </c>
       <c r="R6">
-        <v>3.300267809859386</v>
+        <v>2.690441593794</v>
       </c>
       <c r="S6">
-        <v>0.01755217407888704</v>
+        <v>0.001085571870784148</v>
       </c>
       <c r="T6">
-        <v>0.01755217407888704</v>
+        <v>0.00178563728553957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.20291163798468</v>
+        <v>3.197813</v>
       </c>
       <c r="H7">
-        <v>1.20291163798468</v>
+        <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.08117366799451757</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J7">
-        <v>0.08117366799451757</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.944624792055199</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="N7">
-        <v>9.944624792055199</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O7">
-        <v>0.7837701004213274</v>
+        <v>0.1747955400619085</v>
       </c>
       <c r="P7">
-        <v>0.7837701004213274</v>
+        <v>0.2400540439737208</v>
       </c>
       <c r="Q7">
-        <v>11.96250489775418</v>
+        <v>9.401812187850332</v>
       </c>
       <c r="R7">
-        <v>11.96250489775418</v>
+        <v>84.616309690653</v>
       </c>
       <c r="S7">
-        <v>0.06362149391563053</v>
+        <v>0.03414201067275287</v>
       </c>
       <c r="T7">
-        <v>0.06362149391563053</v>
+        <v>0.05615956796717666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.89274127930474</v>
+        <v>3.197813</v>
       </c>
       <c r="H8">
-        <v>1.89274127930474</v>
+        <v>9.593439</v>
       </c>
       <c r="I8">
-        <v>0.1277240549964304</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J8">
-        <v>0.1277240549964304</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.74356628171671</v>
+        <v>0.06894633333333333</v>
       </c>
       <c r="N8">
-        <v>2.74356628171671</v>
+        <v>0.206839</v>
       </c>
       <c r="O8">
-        <v>0.2162298995786726</v>
+        <v>0.004099048098293286</v>
       </c>
       <c r="P8">
-        <v>0.2162298995786726</v>
+        <v>0.005629394617789365</v>
       </c>
       <c r="Q8">
-        <v>5.192861153913834</v>
+        <v>0.2204774810356667</v>
       </c>
       <c r="R8">
-        <v>5.192861153913834</v>
+        <v>1.984297329321</v>
       </c>
       <c r="S8">
-        <v>0.02761775958565899</v>
+        <v>0.0008006482537854787</v>
       </c>
       <c r="T8">
-        <v>0.02761775958565899</v>
+        <v>0.001316971646961337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.89274127930474</v>
+        <v>3.197813</v>
       </c>
       <c r="H9">
-        <v>1.89274127930474</v>
+        <v>9.593439</v>
       </c>
       <c r="I9">
-        <v>0.1277240549964304</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J9">
-        <v>0.1277240549964304</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.944624792055199</v>
+        <v>13.71758</v>
       </c>
       <c r="N9">
-        <v>9.944624792055199</v>
+        <v>27.43516</v>
       </c>
       <c r="O9">
-        <v>0.7837701004213274</v>
+        <v>0.8155476512483528</v>
       </c>
       <c r="P9">
-        <v>0.7837701004213274</v>
+        <v>0.7466838557631301</v>
       </c>
       <c r="Q9">
-        <v>18.82260185112019</v>
+        <v>43.86625565254</v>
       </c>
       <c r="R9">
-        <v>18.82260185112019</v>
+        <v>263.19753391524</v>
       </c>
       <c r="S9">
-        <v>0.1001062954107714</v>
+        <v>0.1592971800264352</v>
       </c>
       <c r="T9">
-        <v>0.1001062954107714</v>
+        <v>0.1746833423573301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.93448613691051</v>
+        <v>1.622028</v>
       </c>
       <c r="H10">
-        <v>7.93448613691051</v>
+        <v>4.866084</v>
       </c>
       <c r="I10">
-        <v>0.5354269782140713</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J10">
-        <v>0.5354269782140713</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.74356628171671</v>
+        <v>0.093482</v>
       </c>
       <c r="N10">
-        <v>2.74356628171671</v>
+        <v>0.280446</v>
       </c>
       <c r="O10">
-        <v>0.2162298995786726</v>
+        <v>0.005557760591445322</v>
       </c>
       <c r="P10">
-        <v>0.2162298995786726</v>
+        <v>0.007632705645359706</v>
       </c>
       <c r="Q10">
-        <v>21.76878862797635</v>
+        <v>0.151630421496</v>
       </c>
       <c r="R10">
-        <v>21.76878862797635</v>
+        <v>1.364673793464</v>
       </c>
       <c r="S10">
-        <v>0.1157753217309407</v>
+        <v>0.0005506350654101006</v>
       </c>
       <c r="T10">
-        <v>0.1157753217309407</v>
+        <v>0.0009057295329618016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.622028</v>
+      </c>
+      <c r="H11">
+        <v>4.866084</v>
+      </c>
+      <c r="I11">
+        <v>0.09907498827093329</v>
+      </c>
+      <c r="J11">
+        <v>0.118664281716725</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.940075666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.820226999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1747955400619085</v>
+      </c>
+      <c r="P11">
+        <v>0.2400540439737208</v>
+      </c>
+      <c r="Q11">
+        <v>4.768885053452</v>
+      </c>
+      <c r="R11">
+        <v>42.919965481068</v>
+      </c>
+      <c r="S11">
+        <v>0.01731786608144504</v>
+      </c>
+      <c r="T11">
+        <v>0.0284858407013367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.622028</v>
+      </c>
+      <c r="H12">
+        <v>4.866084</v>
+      </c>
+      <c r="I12">
+        <v>0.09907498827093329</v>
+      </c>
+      <c r="J12">
+        <v>0.118664281716725</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.206839</v>
+      </c>
+      <c r="O12">
+        <v>0.004099048098293286</v>
+      </c>
+      <c r="P12">
+        <v>0.005629394617789365</v>
+      </c>
+      <c r="Q12">
+        <v>0.111832883164</v>
+      </c>
+      <c r="R12">
+        <v>1.006495948476</v>
+      </c>
+      <c r="S12">
+        <v>0.0004061131422603987</v>
+      </c>
+      <c r="T12">
+        <v>0.0006680080688199728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.622028</v>
+      </c>
+      <c r="H13">
+        <v>4.866084</v>
+      </c>
+      <c r="I13">
+        <v>0.09907498827093329</v>
+      </c>
+      <c r="J13">
+        <v>0.118664281716725</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.71758</v>
+      </c>
+      <c r="N13">
+        <v>27.43516</v>
+      </c>
+      <c r="O13">
+        <v>0.8155476512483528</v>
+      </c>
+      <c r="P13">
+        <v>0.7466838557631301</v>
+      </c>
+      <c r="Q13">
+        <v>22.25029885224</v>
+      </c>
+      <c r="R13">
+        <v>133.50179311344</v>
+      </c>
+      <c r="S13">
+        <v>0.08080037398181775</v>
+      </c>
+      <c r="T13">
+        <v>0.08860470341360654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.729271</v>
+      </c>
+      <c r="I14">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J14">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.093482</v>
+      </c>
+      <c r="N14">
+        <v>0.280446</v>
+      </c>
+      <c r="O14">
+        <v>0.005557760591445322</v>
+      </c>
+      <c r="P14">
+        <v>0.007632705645359706</v>
+      </c>
+      <c r="Q14">
+        <v>0.2096885705406667</v>
+      </c>
+      <c r="R14">
+        <v>1.887197134866</v>
+      </c>
+      <c r="S14">
+        <v>0.0007614690945013059</v>
+      </c>
+      <c r="T14">
+        <v>0.001252526565510048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.729271</v>
+      </c>
+      <c r="I15">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J15">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.940075666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.820226999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1747955400619085</v>
+      </c>
+      <c r="P15">
+        <v>0.2400540439737208</v>
+      </c>
+      <c r="Q15">
+        <v>6.594855307168555</v>
+      </c>
+      <c r="R15">
+        <v>59.35369776451699</v>
+      </c>
+      <c r="S15">
+        <v>0.02394874687813686</v>
+      </c>
+      <c r="T15">
+        <v>0.03939285506417988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.729271</v>
+      </c>
+      <c r="I16">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J16">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.206839</v>
+      </c>
+      <c r="O16">
+        <v>0.004099048098293286</v>
+      </c>
+      <c r="P16">
+        <v>0.005629394617789365</v>
+      </c>
+      <c r="Q16">
+        <v>0.1546528538187778</v>
+      </c>
+      <c r="R16">
+        <v>1.391875684369</v>
+      </c>
+      <c r="S16">
+        <v>0.0005616108129107052</v>
+      </c>
+      <c r="T16">
+        <v>0.0009237833389798135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.93448613691051</v>
-      </c>
-      <c r="H11">
-        <v>7.93448613691051</v>
-      </c>
-      <c r="I11">
-        <v>0.5354269782140713</v>
-      </c>
-      <c r="J11">
-        <v>0.5354269782140713</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.944624792055199</v>
-      </c>
-      <c r="N11">
-        <v>9.944624792055199</v>
-      </c>
-      <c r="O11">
-        <v>0.7837701004213274</v>
-      </c>
-      <c r="P11">
-        <v>0.7837701004213274</v>
-      </c>
-      <c r="Q11">
-        <v>78.90548754933855</v>
-      </c>
-      <c r="R11">
-        <v>78.90548754933855</v>
-      </c>
-      <c r="S11">
-        <v>0.4196516564831305</v>
-      </c>
-      <c r="T11">
-        <v>0.4196516564831305</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.729271</v>
+      </c>
+      <c r="I17">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J17">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.71758</v>
+      </c>
+      <c r="N17">
+        <v>27.43516</v>
+      </c>
+      <c r="O17">
+        <v>0.8155476512483528</v>
+      </c>
+      <c r="P17">
+        <v>0.7466838557631301</v>
+      </c>
+      <c r="Q17">
+        <v>30.76977109472667</v>
+      </c>
+      <c r="R17">
+        <v>184.61862656836</v>
+      </c>
+      <c r="S17">
+        <v>0.1117382300480223</v>
+      </c>
+      <c r="T17">
+        <v>0.1225307785777606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H18">
+        <v>16.216022</v>
+      </c>
+      <c r="I18">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J18">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.093482</v>
+      </c>
+      <c r="N18">
+        <v>0.280446</v>
+      </c>
+      <c r="O18">
+        <v>0.005557760591445322</v>
+      </c>
+      <c r="P18">
+        <v>0.007632705645359706</v>
+      </c>
+      <c r="Q18">
+        <v>0.7579530843019999</v>
+      </c>
+      <c r="R18">
+        <v>4.547718505811999</v>
+      </c>
+      <c r="S18">
+        <v>0.00275245258856864</v>
+      </c>
+      <c r="T18">
+        <v>0.003018305897012526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H19">
+        <v>16.216022</v>
+      </c>
+      <c r="I19">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J19">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.940075666666667</v>
+      </c>
+      <c r="N19">
+        <v>8.820226999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1747955400619085</v>
+      </c>
+      <c r="P19">
+        <v>0.2400540439737208</v>
+      </c>
+      <c r="Q19">
+        <v>23.83816584616567</v>
+      </c>
+      <c r="R19">
+        <v>143.028995076994</v>
+      </c>
+      <c r="S19">
+        <v>0.0865665997657767</v>
+      </c>
+      <c r="T19">
+        <v>0.09492787619395213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H20">
+        <v>16.216022</v>
+      </c>
+      <c r="I20">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J20">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06894633333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.206839</v>
+      </c>
+      <c r="O20">
+        <v>0.004099048098293286</v>
+      </c>
+      <c r="P20">
+        <v>0.005629394617789365</v>
+      </c>
+      <c r="Q20">
+        <v>0.5590176290763332</v>
+      </c>
+      <c r="R20">
+        <v>3.354105774458</v>
+      </c>
+      <c r="S20">
+        <v>0.002030032665707298</v>
+      </c>
+      <c r="T20">
+        <v>0.002226109031443393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H21">
+        <v>16.216022</v>
+      </c>
+      <c r="I21">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J21">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.71758</v>
+      </c>
+      <c r="N21">
+        <v>27.43516</v>
+      </c>
+      <c r="O21">
+        <v>0.8155476512483528</v>
+      </c>
+      <c r="P21">
+        <v>0.7466838557631301</v>
+      </c>
+      <c r="Q21">
+        <v>111.22228953338</v>
+      </c>
+      <c r="R21">
+        <v>444.88915813352</v>
+      </c>
+      <c r="S21">
+        <v>0.4038958150221156</v>
+      </c>
+      <c r="T21">
+        <v>0.2952714790493791</v>
       </c>
     </row>
   </sheetData>
